--- a/doc/table/场景表.xlsx
+++ b/doc/table/场景表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -51,6 +51,25 @@
   </si>
   <si>
     <t>地图文件</t>
+  </si>
+  <si>
+    <t>Map/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/2</t>
+  </si>
+  <si>
+    <t>Map/3</t>
+  </si>
+  <si>
+    <t>Map/4</t>
+  </si>
+  <si>
+    <t>Map/5</t>
+  </si>
+  <si>
+    <t>Map/6</t>
   </si>
 </sst>
 </file>
@@ -403,7 +422,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -433,6 +452,9 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
@@ -441,6 +463,9 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
@@ -449,6 +474,9 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
@@ -457,6 +485,9 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
@@ -465,6 +496,9 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
@@ -472,6 +506,9 @@
       </c>
       <c r="B7" t="s">
         <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/场景表.xlsx
+++ b/doc/table/场景表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -50,26 +50,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地图文件</t>
-  </si>
-  <si>
-    <t>Map/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map/2</t>
-  </si>
-  <si>
-    <t>Map/3</t>
-  </si>
-  <si>
-    <t>Map/4</t>
-  </si>
-  <si>
-    <t>Map/5</t>
-  </si>
-  <si>
-    <t>Map/6</t>
+    <t>地图文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -422,7 +404,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -452,8 +434,8 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
+      <c r="C2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -463,8 +445,8 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
+      <c r="C3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -474,8 +456,8 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
+      <c r="C4">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -485,8 +467,8 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
+      <c r="C5">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -496,8 +478,8 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
+      <c r="C6">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -507,8 +489,8 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
+      <c r="C7">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/场景表.xlsx
+++ b/doc/table/场景表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,13 +70,21 @@
   </si>
   <si>
     <t>Map/6</t>
+  </si>
+  <si>
+    <t>场景音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,12 +106,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -118,8 +132,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -135,7 +150,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -209,6 +224,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -243,6 +259,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -418,23 +435,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.75" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,8 +461,14 @@
       <c r="C1" t="s">
         <v>8</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -455,8 +478,14 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -466,8 +495,14 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -477,8 +512,14 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -488,8 +529,14 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -499,8 +546,14 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -509,6 +562,12 @@
       </c>
       <c r="C7" t="s">
         <v>14</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -519,12 +578,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -532,12 +591,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/table/场景表.xlsx
+++ b/doc/table/场景表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -53,12 +53,20 @@
     <t>地图文件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>场景音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,12 +88,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -100,8 +114,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -117,7 +132,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -191,6 +206,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -225,6 +241,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,23 +417,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.75" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,8 +443,14 @@
       <c r="C1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -437,8 +460,14 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -448,8 +477,14 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -459,8 +494,14 @@
       <c r="C4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -470,8 +511,14 @@
       <c r="C5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -481,8 +528,14 @@
       <c r="C6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -491,6 +544,12 @@
       </c>
       <c r="C7">
         <v>6</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -501,12 +560,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -514,12 +573,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/table/场景表.xlsx
+++ b/doc/table/场景表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -26,30 +26,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>新手村</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地图文件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,6 +35,54 @@
   </si>
   <si>
     <t>pk模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">（0-255），场景的id，跳转GM命令 //goto map=x </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1-8）个中文字符，场景的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景的背景音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-3），0=绝对安全，1=随意PK，2=国家PK，3=家族PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤凰城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃源村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西郊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东郊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南郊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边境</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +445,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -441,13 +465,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -455,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -464,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -472,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -481,7 +505,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -489,7 +513,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -506,7 +530,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -523,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -540,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -561,12 +585,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/table/场景表.xlsx
+++ b/doc/table/场景表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>边境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xinshoucun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,14 +449,14 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.75" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -481,8 +485,8 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>17</v>
       </c>
       <c r="D2">
         <v>1</v>

--- a/doc/table/场景表.xlsx
+++ b/doc/table/场景表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -87,6 +87,26 @@
   </si>
   <si>
     <t>xinshoucun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fenghuangcheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dongjiao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bianjing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fenghuangchengye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nanjiao</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +469,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -502,8 +522,8 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="C3" t="s">
+        <v>18</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -519,8 +539,8 @@
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4">
-        <v>3</v>
+      <c r="C4" t="s">
+        <v>21</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -536,8 +556,8 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5">
-        <v>4</v>
+      <c r="C5" t="s">
+        <v>19</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -553,8 +573,8 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6">
-        <v>5</v>
+      <c r="C6" t="s">
+        <v>22</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -570,8 +590,8 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7">
-        <v>6</v>
+      <c r="C7" t="s">
+        <v>20</v>
       </c>
       <c r="D7">
         <v>1</v>

--- a/doc/table/场景表.xlsx
+++ b/doc/table/场景表.xlsx
@@ -469,7 +469,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -585,7 +585,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>

--- a/doc/table/场景表.xlsx
+++ b/doc/table/场景表.xlsx
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>边境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>xinshoucun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,15 +94,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>fenghuangchengye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nanjiao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边境小镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>bianjing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fenghuangchengye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nanjiao</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +469,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -506,7 +506,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -523,7 +523,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -540,7 +540,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -557,7 +557,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -574,7 +574,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -585,13 +585,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>1</v>

--- a/doc/table/场景表.xlsx
+++ b/doc/table/场景表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -107,14 +107,18 @@
   </si>
   <si>
     <t>bianjing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小地图文件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,7 +184,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -254,7 +258,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -289,7 +292,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -465,23 +467,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.75" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,14 +494,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -508,14 +514,14 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -525,14 +531,14 @@
       <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -542,14 +548,14 @@
       <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -559,14 +565,14 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -576,14 +582,14 @@
       <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -593,10 +599,10 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
     </row>
@@ -608,19 +614,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -628,7 +634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -636,7 +642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -644,7 +650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -652,7 +658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -667,12 +673,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/table/场景表.xlsx
+++ b/doc/table/场景表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -112,13 +112,20 @@
   <si>
     <t>小地图文件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuben001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +186,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -226,7 +236,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,9 +268,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -292,6 +303,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -467,24 +479,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.75" customWidth="1"/>
-    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.375" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -504,7 +516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -521,7 +533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -538,7 +550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -555,7 +567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -572,7 +584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -589,7 +601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -603,6 +615,23 @@
         <v>1</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
     </row>
@@ -614,19 +643,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -634,7 +663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -642,7 +671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -650,7 +679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -658,7 +687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -673,12 +702,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/table/场景表.xlsx
+++ b/doc/table/场景表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -119,6 +119,14 @@
   </si>
   <si>
     <t>fuben001</t>
+  </si>
+  <si>
+    <t>测试副本2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feben002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -194,7 +202,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -236,7 +244,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,7 +279,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -480,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -632,6 +640,23 @@
         <v>1</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
     </row>

--- a/doc/table/场景表.xlsx
+++ b/doc/table/场景表.xlsx
@@ -125,8 +125,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>feben002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>fuben002</t>
   </si>
 </sst>
 </file>
@@ -491,7 +490,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/table/场景表.xlsx
+++ b/doc/table/场景表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -126,6 +126,14 @@
   </si>
   <si>
     <t>fuben002</t>
+  </si>
+  <si>
+    <t>测试副本3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuben003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -201,7 +209,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -243,7 +251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,7 +286,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -487,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -656,6 +664,23 @@
         <v>1</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
     </row>

--- a/doc/table/场景表.xlsx
+++ b/doc/table/场景表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -133,6 +133,14 @@
   </si>
   <si>
     <t>fuben003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试副本4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuben004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -681,6 +689,23 @@
         <v>1</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
     </row>

--- a/doc/table/场景表.xlsx
+++ b/doc/table/场景表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -141,6 +141,14 @@
   </si>
   <si>
     <t>fuben004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试副本5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuben005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -706,6 +714,23 @@
         <v>1</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>105</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
     </row>

--- a/doc/table/场景表.xlsx
+++ b/doc/table/场景表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -149,6 +149,42 @@
   </si>
   <si>
     <t>fuben005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1表示国家地图,2表示中立区地图,3表示普通副本地图</t>
+  </si>
+  <si>
+    <t>地图类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家</t>
+  </si>
+  <si>
+    <t>副本</t>
+  </si>
+  <si>
+    <t>中立区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求和</t>
+  </si>
+  <si>
+    <t>平均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,23 +547,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.75" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,19 +572,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -555,16 +595,19 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -572,16 +615,19 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -589,16 +635,19 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -606,16 +655,19 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -623,16 +675,19 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -640,16 +695,19 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>101</v>
       </c>
@@ -657,16 +715,19 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>102</v>
       </c>
@@ -674,16 +735,19 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>103</v>
       </c>
@@ -691,16 +755,19 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
         <v>29</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>104</v>
       </c>
@@ -708,16 +775,19 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>105</v>
       </c>
@@ -725,12 +795,15 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
         <v>33</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>1</v>
       </c>
     </row>
@@ -743,10 +816,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -772,31 +845,40 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/table/场景表.xlsx
+++ b/doc/table/场景表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -152,39 +152,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1表示国家地图,2表示中立区地图,3表示普通副本地图</t>
+  </si>
+  <si>
     <t>地图类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1表示国家地图,2表示中立区地图,3表示普通副本地图</t>
-  </si>
-  <si>
-    <t>地图类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>国家</t>
   </si>
   <si>
+    <t>中立区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中立区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中立区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>副本</t>
-  </si>
-  <si>
-    <t>中立区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求和</t>
-  </si>
-  <si>
-    <t>平均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -192,7 +186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +206,15 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -240,9 +243,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -572,7 +576,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -615,7 +619,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -635,7 +639,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -655,7 +659,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -675,7 +679,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -695,7 +699,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -715,7 +719,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -735,7 +739,7 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -755,7 +759,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -775,7 +779,7 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
         <v>31</v>
@@ -795,7 +799,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -809,6 +813,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+      <formula1>"国家,中立区,副本"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -816,10 +825,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -845,10 +854,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -874,6 +883,9 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/table/场景表.xlsx
+++ b/doc/table/场景表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -180,6 +180,90 @@
   <si>
     <t>国家类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试副本6</t>
+  </si>
+  <si>
+    <t>测试副本7</t>
+  </si>
+  <si>
+    <t>测试副本8</t>
+  </si>
+  <si>
+    <t>测试副本9</t>
+  </si>
+  <si>
+    <t>测试副本10</t>
+  </si>
+  <si>
+    <t>测试副本11</t>
+  </si>
+  <si>
+    <t>测试副本12</t>
+  </si>
+  <si>
+    <t>测试副本13</t>
+  </si>
+  <si>
+    <t>测试副本14</t>
+  </si>
+  <si>
+    <t>测试副本15</t>
+  </si>
+  <si>
+    <t>测试副本16</t>
+  </si>
+  <si>
+    <t>测试副本17</t>
+  </si>
+  <si>
+    <t>测试副本18</t>
+  </si>
+  <si>
+    <t>fuben006</t>
+  </si>
+  <si>
+    <t>fuben007</t>
+  </si>
+  <si>
+    <t>fuben008</t>
+  </si>
+  <si>
+    <t>fuben009</t>
+  </si>
+  <si>
+    <t>fuben010</t>
+  </si>
+  <si>
+    <t>fuben011</t>
+  </si>
+  <si>
+    <t>fuben012</t>
+  </si>
+  <si>
+    <t>fuben013</t>
+  </si>
+  <si>
+    <t>fuben014</t>
+  </si>
+  <si>
+    <t>fuben015</t>
+  </si>
+  <si>
+    <t>fuben016</t>
+  </si>
+  <si>
+    <t>fuben017</t>
+  </si>
+  <si>
+    <t>fuben018</t>
+  </si>
+  <si>
+    <t>测试副本19</t>
+  </si>
+  <si>
+    <t>fuben019</t>
   </si>
 </sst>
 </file>
@@ -551,18 +635,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.75" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.375" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.25" bestFit="1" customWidth="1"/>
@@ -808,6 +892,286 @@
         <v>1</v>
       </c>
       <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>106</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>107</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>109</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>110</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>111</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>112</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>113</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>115</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>116</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>117</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>118</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>119</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
         <v>1</v>
       </c>
     </row>

--- a/doc/table/场景表.xlsx
+++ b/doc/table/场景表.xlsx
@@ -638,7 +638,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/table/场景表.xlsx
+++ b/doc/table/场景表.xlsx
@@ -11,12 +11,12 @@
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -118,152 +118,157 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>测试副本2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuben002</t>
+  </si>
+  <si>
+    <t>测试副本3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuben003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试副本4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuben004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试副本5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuben005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1表示国家地图,2表示中立区地图,3表示普通副本地图</t>
+  </si>
+  <si>
+    <t>地图类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家</t>
+  </si>
+  <si>
+    <t>中立区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中立区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中立区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试副本6</t>
+  </si>
+  <si>
+    <t>测试副本7</t>
+  </si>
+  <si>
+    <t>测试副本8</t>
+  </si>
+  <si>
+    <t>测试副本9</t>
+  </si>
+  <si>
+    <t>测试副本10</t>
+  </si>
+  <si>
+    <t>测试副本11</t>
+  </si>
+  <si>
+    <t>测试副本12</t>
+  </si>
+  <si>
+    <t>测试副本13</t>
+  </si>
+  <si>
+    <t>测试副本14</t>
+  </si>
+  <si>
+    <t>测试副本15</t>
+  </si>
+  <si>
+    <t>测试副本16</t>
+  </si>
+  <si>
+    <t>测试副本17</t>
+  </si>
+  <si>
+    <t>测试副本18</t>
+  </si>
+  <si>
+    <t>fuben006</t>
+  </si>
+  <si>
+    <t>fuben008</t>
+  </si>
+  <si>
+    <t>fuben009</t>
+  </si>
+  <si>
+    <t>fuben010</t>
+  </si>
+  <si>
+    <t>fuben011</t>
+  </si>
+  <si>
+    <t>fuben012</t>
+  </si>
+  <si>
+    <t>fuben013</t>
+  </si>
+  <si>
+    <t>fuben014</t>
+  </si>
+  <si>
+    <t>fuben015</t>
+  </si>
+  <si>
+    <t>fuben016</t>
+  </si>
+  <si>
+    <t>fuben017</t>
+  </si>
+  <si>
+    <t>fuben018</t>
+  </si>
+  <si>
+    <t>测试副本19</t>
+  </si>
+  <si>
+    <t>fuben019</t>
+  </si>
+  <si>
     <t>fuben001</t>
-  </si>
-  <si>
-    <t>测试副本2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fuben002</t>
-  </si>
-  <si>
-    <t>测试副本3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fuben003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试副本4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fuben004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试副本5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fuben005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1表示国家地图,2表示中立区地图,3表示普通副本地图</t>
-  </si>
-  <si>
-    <t>地图类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuben007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中立区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中立区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中立区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国家类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试副本6</t>
-  </si>
-  <si>
-    <t>测试副本7</t>
-  </si>
-  <si>
-    <t>测试副本8</t>
-  </si>
-  <si>
-    <t>测试副本9</t>
-  </si>
-  <si>
-    <t>测试副本10</t>
-  </si>
-  <si>
-    <t>测试副本11</t>
-  </si>
-  <si>
-    <t>测试副本12</t>
-  </si>
-  <si>
-    <t>测试副本13</t>
-  </si>
-  <si>
-    <t>测试副本14</t>
-  </si>
-  <si>
-    <t>测试副本15</t>
-  </si>
-  <si>
-    <t>测试副本16</t>
-  </si>
-  <si>
-    <t>测试副本17</t>
-  </si>
-  <si>
-    <t>测试副本18</t>
-  </si>
-  <si>
-    <t>fuben006</t>
-  </si>
-  <si>
-    <t>fuben007</t>
-  </si>
-  <si>
-    <t>fuben008</t>
-  </si>
-  <si>
-    <t>fuben009</t>
-  </si>
-  <si>
-    <t>fuben010</t>
-  </si>
-  <si>
-    <t>fuben011</t>
-  </si>
-  <si>
-    <t>fuben012</t>
-  </si>
-  <si>
-    <t>fuben013</t>
-  </si>
-  <si>
-    <t>fuben014</t>
-  </si>
-  <si>
-    <t>fuben015</t>
-  </si>
-  <si>
-    <t>fuben016</t>
-  </si>
-  <si>
-    <t>fuben017</t>
-  </si>
-  <si>
-    <t>fuben018</t>
-  </si>
-  <si>
-    <t>测试副本19</t>
-  </si>
-  <si>
-    <t>fuben019</t>
   </si>
 </sst>
 </file>
@@ -638,7 +643,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -660,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -683,7 +688,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -703,7 +708,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -723,7 +728,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -743,7 +748,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -763,7 +768,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -783,7 +788,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -797,16 +802,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -817,16 +822,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -837,16 +842,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -857,16 +862,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -877,16 +882,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -897,16 +902,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -917,16 +922,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -937,16 +942,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -957,16 +962,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -977,16 +982,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -997,16 +1002,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1017,16 +1022,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1037,16 +1042,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1057,16 +1062,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1077,16 +1082,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1097,16 +1102,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1117,16 +1122,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1137,16 +1142,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1157,16 +1162,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1218,10 +1223,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">

--- a/doc/table/场景表.xlsx
+++ b/doc/table/场景表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -154,9 +154,6 @@
   <si>
     <t>地图类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国家</t>
   </si>
   <si>
     <t>中立区</t>
@@ -643,7 +640,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -665,7 +662,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -688,7 +685,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -708,7 +705,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -728,7 +725,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -748,7 +745,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -768,7 +765,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -788,7 +785,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -805,13 +802,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -825,13 +822,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -845,13 +842,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -865,13 +862,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -885,13 +882,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -905,13 +902,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -925,13 +922,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -945,13 +942,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -965,13 +962,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -985,13 +982,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1005,13 +1002,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1025,13 +1022,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1045,13 +1042,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1065,13 +1062,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
         <v>66</v>
-      </c>
-      <c r="C21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" t="s">
-        <v>67</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1088,10 +1085,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1108,7 +1105,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
@@ -1128,7 +1125,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
         <v>28</v>
@@ -1148,7 +1145,7 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
         <v>30</v>
@@ -1168,7 +1165,7 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
         <v>32</v>

--- a/doc/table/场景表.xlsx
+++ b/doc/table/场景表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -249,12 +249,6 @@
   </si>
   <si>
     <t>fuben018</t>
-  </si>
-  <si>
-    <t>测试副本19</t>
-  </si>
-  <si>
-    <t>fuben019</t>
   </si>
   <si>
     <t>fuben001</t>
@@ -637,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -785,7 +779,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -805,7 +799,7 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
         <v>53</v>
@@ -825,10 +819,10 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -845,7 +839,7 @@
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
         <v>54</v>
@@ -865,7 +859,7 @@
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
         <v>55</v>
@@ -885,7 +879,7 @@
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
         <v>56</v>
@@ -905,7 +899,7 @@
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
         <v>57</v>
@@ -925,7 +919,7 @@
         <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
         <v>58</v>
@@ -945,7 +939,7 @@
         <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
@@ -965,7 +959,7 @@
         <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
         <v>60</v>
@@ -985,7 +979,7 @@
         <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
         <v>61</v>
@@ -1005,7 +999,7 @@
         <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
         <v>62</v>
@@ -1025,7 +1019,7 @@
         <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
         <v>63</v>
@@ -1045,7 +1039,7 @@
         <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
         <v>64</v>
@@ -1059,16 +1053,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
         <v>65</v>
-      </c>
-      <c r="C21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" t="s">
-        <v>66</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1079,16 +1073,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
         <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1099,16 +1093,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1119,16 +1113,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
         <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1139,41 +1133,21 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
         <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>105</v>
-      </c>
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
         <v>1</v>
       </c>
     </row>
